--- a/Output/Modelling/Logistic Regression/Tables/exclude_previous_model_comparison_df.xlsx
+++ b/Output/Modelling/Logistic Regression/Tables/exclude_previous_model_comparison_df.xlsx
@@ -472,23 +472,23 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3585</v>
+        <v>0.3507</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.2435</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.3507</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.2891</v>
+        <v>0.2751</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8119</v>
+        <v>0.8022</v>
       </c>
     </row>
     <row r="3">
@@ -498,23 +498,23 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6105</v>
+        <v>0.6484</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.6464</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.6484</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.6002</v>
+        <v>0.6457000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9379</v>
+        <v>0.9432</v>
       </c>
     </row>
     <row r="4">
@@ -524,23 +524,23 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6122</v>
+        <v>0.6556999999999999</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.6573</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.6557</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.6034</v>
+        <v>0.6536999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9388</v>
+        <v>0.946</v>
       </c>
     </row>
     <row r="5">
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3159</v>
+        <v>0.3013</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>

--- a/Output/Modelling/Logistic Regression/Tables/exclude_previous_model_comparison_df.xlsx
+++ b/Output/Modelling/Logistic Regression/Tables/exclude_previous_model_comparison_df.xlsx
@@ -472,23 +472,23 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3507</v>
+        <v>0.1923</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.2435</t>
+          <t>0.3231</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.3507</t>
+          <t>0.1923</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.2751</v>
+        <v>0.2266</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8022</v>
+        <v>0.4633</v>
       </c>
     </row>
     <row r="3">
@@ -498,23 +498,23 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6484</v>
+        <v>0.6225000000000001</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.6464</t>
+          <t>0.6295</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.6484</t>
+          <t>0.6225</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.6457000000000001</v>
+        <v>0.6223</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9432</v>
+        <v>0.9186</v>
       </c>
     </row>
     <row r="4">
@@ -524,23 +524,23 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6556999999999999</v>
+        <v>0.6333</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.6573</t>
+          <t>0.6389</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.6557</t>
+          <t>0.6333</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.6536999999999999</v>
+        <v>0.6329</v>
       </c>
       <c r="F4" t="n">
-        <v>0.946</v>
+        <v>0.9267</v>
       </c>
     </row>
     <row r="5">
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3013</v>
+        <v>0.3247</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>

--- a/Output/Modelling/Logistic Regression/Tables/exclude_previous_model_comparison_df.xlsx
+++ b/Output/Modelling/Logistic Regression/Tables/exclude_previous_model_comparison_df.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Output/Modelling/Logistic Regression/Tables/exclude_previous_model_comparison_df.xlsx
+++ b/Output/Modelling/Logistic Regression/Tables/exclude_previous_model_comparison_df.xlsx
@@ -546,7 +546,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Majority Baseline</t>
+          <t>Most Common Class Baseline</t>
         </is>
       </c>
       <c r="B5" t="n">
